--- a/Mod/ModProject_Cave/ModProject/ModExcel/DramaOptions.xlsx
+++ b/Mod/ModProject_Cave/ModProject/ModExcel/DramaOptions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="DramaOptions" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>选项ID</t>
   </si>
@@ -106,6 +106,18 @@
     <t>addFeature_42685182</t>
   </si>
   <si>
+    <t>drama_option42685185</t>
+  </si>
+  <si>
+    <t>收为道侣</t>
+  </si>
+  <si>
+    <t>drama_option42685186</t>
+  </si>
+  <si>
+    <t>继续囚禁</t>
+  </si>
+  <si>
     <t>注释</t>
   </si>
   <si>
@@ -145,11 +157,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -157,10 +169,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -171,7 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,69 +204,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +219,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,10 +265,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,8 +316,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +333,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,55 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,13 +381,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,67 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,12 +517,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -510,12 +527,75 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -539,69 +619,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -613,10 +630,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,16 +642,16 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,120 +660,121 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1079,7 +1097,7 @@
   <dimension ref="A1:L3899"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1295,8 +1313,76 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customHeight="1"/>
-    <row r="8" customHeight="1"/>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7">
+        <v>42685185</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8">
+        <v>42685186</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="9" customHeight="1"/>
     <row r="10" customHeight="1"/>
     <row r="11" customHeight="1"/>
@@ -1307,60 +1393,60 @@
     <row r="16" customHeight="1"/>
     <row r="17" customHeight="1" spans="1:8">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customHeight="1"/>
